--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Dropbox\HKS\Clanci\Davor\Empirical_Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D642FF-80C1-4E50-B17B-9945A17E98E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C50A25-ADA0-4B03-B171-837CD20A3A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16652" yWindow="0" windowWidth="16965" windowHeight="20343" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1833" yWindow="3129" windowWidth="29624" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -104,9 +104,6 @@
     <t>2.	Rudarstvo i vađenje</t>
   </si>
   <si>
-    <t>2.	Postoji odjel za odnose s javnošću (korporativne komunikacije) i odjel za marketing koji su ravnopravni, ali čije se aktivnosti u određenoj mjeri preklapaju i ovisne su jedne o drugima (npr. promocija proizvoda ili odnosi s kupcima).</t>
-  </si>
-  <si>
     <t>1. DA</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>7.	Trgovina na veliko i na malo; popravak motornih vozila i motocikla</t>
   </si>
   <si>
-    <t>5.	Postoji jedan, integrirani odjel u kojem se funkcije marketinga i odnosa s javnošću ne razlikuju.</t>
-  </si>
-  <si>
     <t>4. Uglavnom se slažem</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>2. Javno poduzeće</t>
   </si>
   <si>
-    <t>3.	Postoji samo odjel za marketing koji obavlja i funkcije odnosa s javnošću (Marketing-dominant model).</t>
-  </si>
-  <si>
     <t>2. NE</t>
   </si>
   <si>
@@ -257,9 +248,6 @@
     <t>Direktorica sektorja za korporativno komuniciranje</t>
   </si>
   <si>
-    <t>1.	Postoji odjel za odnose s javnošću (korporativne komunikacije) i odjel za marketing koji su ravnopravni i čije su funkcije međusobno neovisne.</t>
-  </si>
-  <si>
     <t>Svetovanje, event management, oblikovanje</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t>3.	Prerađivačka industrija</t>
   </si>
   <si>
-    <t>6.	Marketinškim i komunikacijskim aktivnostima bavi se drugi odjel unutar kompanije.</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
@@ -324,9 +309,6 @@
   </si>
   <si>
     <t>voditelj odjela</t>
-  </si>
-  <si>
-    <t>8. Ništa od navedenog</t>
   </si>
   <si>
     <t>Voditeljica komunikacija</t>
@@ -867,13 +849,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="159.21875" customWidth="1"/>
     <col min="16" max="16" width="27.77734375" customWidth="1"/>
     <col min="17" max="19" width="20" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="37.5546875" customWidth="1"/>
@@ -918,28 +901,28 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" t="s">
-        <v>124</v>
-      </c>
       <c r="T1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="U1" t="s">
         <v>13</v>
@@ -986,26 +969,26 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
+      <c r="O2">
+        <v>2</v>
       </c>
       <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2">
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1023,46 +1006,46 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T3">
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1080,49 +1063,49 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
         <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4">
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1140,46 +1123,46 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" t="s">
         <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T5">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1197,46 +1180,46 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1254,13 +1237,13 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -1269,31 +1252,31 @@
         <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
       </c>
       <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" t="s">
-        <v>26</v>
-      </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T7">
         <v>5</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1311,46 +1294,46 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
       <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T8">
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1368,46 +1351,46 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T9">
         <v>5</v>
       </c>
       <c r="V9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1425,16 +1408,16 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
       </c>
       <c r="L10" t="s">
         <v>21</v>
@@ -1443,28 +1426,28 @@
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T10">
         <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1482,40 +1465,40 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>33</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
-      <c r="O11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
-      </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -1536,46 +1519,46 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
         <v>32</v>
       </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>33</v>
       </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" t="s">
-        <v>24</v>
+      <c r="O12">
+        <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1593,13 +1576,13 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
@@ -1608,31 +1591,31 @@
         <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T13">
         <v>4</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1650,16 +1633,16 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
         <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
@@ -1668,28 +1651,28 @@
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T14">
         <v>4</v>
       </c>
       <c r="U14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1707,10 +1690,10 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -1722,31 +1705,31 @@
         <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T15">
         <v>4</v>
       </c>
       <c r="U15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1764,40 +1747,40 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
         <v>31</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
         <v>32</v>
       </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>33</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" t="s">
         <v>34</v>
       </c>
-      <c r="O16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" t="s">
-        <v>36</v>
-      </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T16">
         <v>3</v>
@@ -1818,16 +1801,16 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
         <v>38</v>
-      </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>40</v>
       </c>
       <c r="L17" t="s">
         <v>21</v>
@@ -1836,28 +1819,28 @@
         <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -1875,46 +1858,46 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
       <c r="L18" t="s">
         <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T18">
         <v>5</v>
       </c>
       <c r="V18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -1932,40 +1915,40 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
         <v>32</v>
       </c>
-      <c r="L19" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>33</v>
       </c>
-      <c r="N19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" t="s">
-        <v>42</v>
+      <c r="O19">
+        <v>3</v>
       </c>
       <c r="P19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" t="s">
-        <v>26</v>
-      </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -1986,13 +1969,13 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
@@ -2004,31 +1987,31 @@
         <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T20">
         <v>4</v>
       </c>
       <c r="U20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2046,13 +2029,13 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -2061,25 +2044,25 @@
         <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
       <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" t="s">
-        <v>26</v>
-      </c>
       <c r="R21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T21">
         <v>5</v>
@@ -2099,53 +2082,53 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
         <v>31</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
         <v>32</v>
       </c>
-      <c r="L22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" t="s">
-        <v>33</v>
-      </c>
       <c r="N22" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T22">
         <v>5</v>
       </c>
       <c r="U22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2162,50 +2145,50 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
         <v>31</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
         <v>32</v>
       </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" t="s">
-        <v>33</v>
-      </c>
       <c r="N23" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T23">
         <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2222,20 +2205,20 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
         <v>31</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
       </c>
       <c r="L24" t="s">
         <v>21</v>
@@ -2244,28 +2227,28 @@
         <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="V24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2282,53 +2265,53 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
         <v>31</v>
       </c>
-      <c r="K25" t="s">
-        <v>32</v>
-      </c>
       <c r="L25" t="s">
         <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>90</v>
-      </c>
-      <c r="O25" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T25">
         <v>3</v>
       </c>
       <c r="V25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2345,53 +2328,53 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
         <v>32</v>
       </c>
-      <c r="L26" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" t="s">
-        <v>33</v>
-      </c>
       <c r="N26" t="s">
-        <v>94</v>
-      </c>
-      <c r="O26" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T26">
         <v>2</v>
       </c>
       <c r="U26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2408,44 +2391,44 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -2465,50 +2448,50 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
         <v>32</v>
       </c>
-      <c r="L28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" t="s">
-        <v>33</v>
-      </c>
       <c r="N28" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" t="s">
-        <v>98</v>
+        <v>57</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T28">
         <v>4</v>
       </c>
       <c r="V28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2525,50 +2508,50 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
         <v>32</v>
       </c>
-      <c r="L29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" t="s">
-        <v>33</v>
-      </c>
       <c r="N29" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" t="s">
-        <v>35</v>
+        <v>86</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T29">
         <v>3</v>
       </c>
       <c r="V29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -2585,50 +2568,50 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" t="s">
         <v>32</v>
       </c>
-      <c r="L30" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>33</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" t="s">
         <v>34</v>
       </c>
-      <c r="O30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P30" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>36</v>
-      </c>
       <c r="R30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T30">
         <v>5</v>
       </c>
       <c r="V30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -2645,50 +2628,50 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
         <v>31</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
         <v>32</v>
       </c>
-      <c r="L31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" t="s">
-        <v>33</v>
-      </c>
       <c r="N31" t="s">
-        <v>56</v>
-      </c>
-      <c r="O31" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T31">
         <v>5</v>
       </c>
       <c r="U31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -2705,50 +2688,50 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
         <v>32</v>
       </c>
-      <c r="L32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>33</v>
       </c>
-      <c r="N32" t="s">
-        <v>34</v>
-      </c>
-      <c r="O32" t="s">
-        <v>24</v>
+      <c r="O32">
+        <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="V32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -2765,50 +2748,50 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s">
         <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N33" t="s">
-        <v>106</v>
-      </c>
-      <c r="O33" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T33">
         <v>5</v>
       </c>
       <c r="W33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -2825,53 +2808,53 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
         <v>31</v>
       </c>
-      <c r="K34" t="s">
-        <v>32</v>
-      </c>
       <c r="L34" t="s">
         <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T34">
         <v>4</v>
       </c>
       <c r="U34" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="V34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -2888,50 +2871,50 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
         <v>31</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
         <v>32</v>
       </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" t="s">
-        <v>33</v>
-      </c>
       <c r="N35" t="s">
-        <v>90</v>
-      </c>
-      <c r="O35" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T35">
         <v>4</v>
       </c>
       <c r="U35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -2948,50 +2931,50 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I36" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
         <v>31</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
         <v>32</v>
       </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" t="s">
-        <v>33</v>
-      </c>
       <c r="N36" t="s">
-        <v>50</v>
-      </c>
-      <c r="O36" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3008,17 +2991,17 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K37" t="s">
         <v>20</v>
@@ -3030,28 +3013,28 @@
         <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>90</v>
-      </c>
-      <c r="O37" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="V37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3068,17 +3051,17 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
@@ -3087,31 +3070,31 @@
         <v>21</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>116</v>
-      </c>
-      <c r="O38" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T38">
         <v>5</v>
       </c>
       <c r="U38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
